--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayhanmendis/Documents/Dev/originality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73264D8-B3CE-4B47-A31D-D5818D5BEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EAB83-CEB8-284F-BD22-85E69E0B5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16620" activeTab="1" xr2:uid="{DA95CE86-3553-5147-BFE8-93123E9EE38A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>userid</t>
   </si>
@@ -66,82 +66,43 @@
     <t xml:space="preserve"> use as a tool for weight lifting</t>
   </si>
   <si>
-    <t xml:space="preserve"> break down into small pieces to make use to something else</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> part of a decoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traded</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> create jobs</t>
-  </si>
-  <si>
     <t>A brick can be used for building things</t>
   </si>
   <si>
     <t xml:space="preserve"> like apartments</t>
   </si>
   <si>
-    <t xml:space="preserve"> homes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> housing complexes and other building that generally benefit the public</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It can also be used more creatively though</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and my creatively I mean violently but not in a psychotic way</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So multifunctional</t>
-  </si>
-  <si>
     <t>bricks can be used to build house</t>
   </si>
   <si>
     <t xml:space="preserve"> lay foundations for a house</t>
   </si>
   <si>
-    <t xml:space="preserve"> build retention walls</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> build postboxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
     <t xml:space="preserve"> propping up a door</t>
   </si>
   <si>
-    <t xml:space="preserve"> throwing it at someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a column</t>
-  </si>
-  <si>
     <t>To build a house/building</t>
   </si>
   <si>
-    <t xml:space="preserve"> to crush something into smaller pieces/smithereens</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to to construct wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to smash something e.g.,  a window</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to hold/weigh down something e.g.,  a tarp</t>
+    <t>Breaking glass</t>
+  </si>
+  <si>
+    <t>Propping a door</t>
+  </si>
+  <si>
+    <t>Opening a bottle of champagne</t>
+  </si>
+  <si>
+    <t>Crushing Spices</t>
+  </si>
+  <si>
+    <t>Opening a banana</t>
+  </si>
+  <si>
+    <t>Weighing a boat down</t>
   </si>
 </sst>
 </file>
@@ -730,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D58BD3-47EF-0B43-903C-68D5C82ADD3B}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,100 +707,110 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
